--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -618,7 +618,9 @@
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>week</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Fork a code from next tab github repo and try to work on it.</t>
+  </si>
+  <si>
+    <t>Sample Image</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -476,10 +479,11 @@
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="50.44140625" customWidth="1"/>
     <col min="4" max="4" width="41.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -493,10 +497,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8">
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -509,11 +516,12 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6"/>
+      <c r="F2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8">
+    <row r="3" spans="1:6" ht="28.8">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -526,11 +534,12 @@
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6"/>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" spans="1:6" ht="28.8">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -543,11 +552,12 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -560,11 +570,12 @@
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1">
+    <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -577,11 +588,12 @@
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -594,18 +606,20 @@
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="93" customHeight="1">
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="93" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -618,163 +632,186 @@
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6"/>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="1"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="1"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="1"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="1"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="1"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="1"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>week</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Sample Image</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -516,7 +519,9 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" s="5">
         <v>1</v>
       </c>
@@ -534,7 +539,9 @@
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="5">
         <v>1</v>
       </c>
@@ -552,7 +559,9 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
@@ -570,7 +579,9 @@
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -588,7 +599,9 @@
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
@@ -606,7 +619,9 @@
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
@@ -616,7 +631,9 @@
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="93" customHeight="1">
@@ -632,7 +649,9 @@
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
